--- a/Altcoins..xlsx
+++ b/Altcoins..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475A2A76-9251-4D8F-96DC-665158BC908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F3C938-3FFE-4FCF-ACB8-749F3D71A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ADFBAB0-0C81-44C0-861D-9723C699376B}"/>
   </bookViews>
@@ -1293,11 +1293,11 @@
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000"/>
-    <numFmt numFmtId="175" formatCode="0.00000000"/>
-    <numFmt numFmtId="176" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1351,11 +1351,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1674,7 +1674,7 @@
   <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
